--- a/in-progress/Mortezaei_2011_CompSciTech/SUBMISSION/S9/S9_storagemod.xlsx
+++ b/in-progress/Mortezaei_2011_CompSciTech/SUBMISSION/S9/S9_storagemod.xlsx
@@ -14,186 +14,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
   <si>
     <t>Temperature (Celsius)</t>
   </si>
   <si>
-    <t>Y</t>
-  </si>
-  <si>
-    <t>96.79108364292907</t>
-  </si>
-  <si>
-    <t>98.67629596194577</t>
-  </si>
-  <si>
-    <t>100.56150828096247</t>
-  </si>
-  <si>
-    <t>102.51527377521614</t>
-  </si>
-  <si>
-    <t>104.33193291899586</t>
-  </si>
-  <si>
-    <t>106.21714523801256</t>
-  </si>
-  <si>
-    <t>108.10235755702926</t>
-  </si>
-  <si>
-    <t>109.98756987604597</t>
-  </si>
-  <si>
-    <t>111.87278219506267</t>
-  </si>
-  <si>
-    <t>113.75799451407937</t>
-  </si>
-  <si>
-    <t>115.71176000833304</t>
-  </si>
-  <si>
-    <t>117.52841915211278</t>
-  </si>
-  <si>
-    <t>119.41363147112946</t>
-  </si>
-  <si>
-    <t>121.29884379014618</t>
-  </si>
-  <si>
-    <t>123.18405610916287</t>
-  </si>
-  <si>
-    <t>125.06926842817958</t>
-  </si>
-  <si>
-    <t>126.86878927815006</t>
-  </si>
-  <si>
-    <t>128.839693066213</t>
-  </si>
-  <si>
-    <t>130.6906287976112</t>
-  </si>
-  <si>
-    <t>132.61011770424636</t>
-  </si>
-  <si>
-    <t>134.49533002326308</t>
-  </si>
-  <si>
-    <t>136.38054234227977</t>
-  </si>
-  <si>
-    <t>138.4371375993889</t>
-  </si>
-  <si>
-    <t>140.32234991840562</t>
-  </si>
-  <si>
-    <t>142.2075622374223</t>
-  </si>
-  <si>
-    <t>144.092774556439</t>
-  </si>
-  <si>
-    <t>145.9779868754557</t>
-  </si>
-  <si>
-    <t>147.8631991944724</t>
-  </si>
-  <si>
-    <t>149.27710843373495</t>
-  </si>
-  <si>
-    <t>13817024.055508014</t>
-  </si>
-  <si>
-    <t>13862795.591814088</t>
-  </si>
-  <si>
-    <t>13246190.393810455</t>
-  </si>
-  <si>
-    <t>11525233.263582759</t>
-  </si>
-  <si>
-    <t>9711533.034030413</t>
-  </si>
-  <si>
-    <t>7600839.047800092</t>
-  </si>
-  <si>
-    <t>5886260.575025553</t>
-  </si>
-  <si>
-    <t>4591632.665318484</t>
-  </si>
-  <si>
-    <t>3723001.5765377856</t>
-  </si>
-  <si>
-    <t>3164768.2563064154</t>
-  </si>
-  <si>
-    <t>2652678.472927957</t>
-  </si>
-  <si>
-    <t>2374229.4361021426</t>
-  </si>
-  <si>
-    <t>2155148.524636506</t>
-  </si>
-  <si>
-    <t>1943830.534993693</t>
-  </si>
-  <si>
-    <t>1743662.62348273</t>
-  </si>
-  <si>
-    <t>1607137.9295802119</t>
-  </si>
-  <si>
-    <t>1450003.1789533822</t>
-  </si>
-  <si>
-    <t>1346457.4941091612</t>
-  </si>
-  <si>
-    <t>1267423.6499469206</t>
-  </si>
-  <si>
-    <t>1151716.1411899459</t>
-  </si>
-  <si>
-    <t>1044250.6085995369</t>
-  </si>
-  <si>
-    <t>976639.8926922174</t>
-  </si>
-  <si>
-    <t>915008.3500060556</t>
-  </si>
-  <si>
-    <t>842020.021883468</t>
-  </si>
-  <si>
-    <t>817515.3318900247</t>
-  </si>
-  <si>
-    <t>776180.5470030596</t>
-  </si>
-  <si>
-    <t>743519.6460268954</t>
-  </si>
-  <si>
-    <t>694429.0608257252</t>
-  </si>
-  <si>
-    <t>652195.1654051729</t>
+    <t>Storage modulus (Pa)</t>
   </si>
 </sst>
 </file>
@@ -566,235 +392,235 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" t="s">
-        <v>2</v>
-      </c>
-      <c r="B2" t="s">
-        <v>31</v>
+      <c r="A2">
+        <v>96.79108364292907</v>
+      </c>
+      <c r="B2">
+        <v>13817024.05550801</v>
       </c>
     </row>
     <row r="3" spans="1:2">
-      <c r="A3" t="s">
-        <v>3</v>
-      </c>
-      <c r="B3" t="s">
-        <v>32</v>
+      <c r="A3">
+        <v>98.67629596194577</v>
+      </c>
+      <c r="B3">
+        <v>13862795.59181409</v>
       </c>
     </row>
     <row r="4" spans="1:2">
-      <c r="A4" t="s">
-        <v>4</v>
-      </c>
-      <c r="B4" t="s">
-        <v>33</v>
+      <c r="A4">
+        <v>100.5615082809625</v>
+      </c>
+      <c r="B4">
+        <v>13246190.39381045</v>
       </c>
     </row>
     <row r="5" spans="1:2">
-      <c r="A5" t="s">
-        <v>5</v>
-      </c>
-      <c r="B5" t="s">
-        <v>34</v>
+      <c r="A5">
+        <v>102.5152737752161</v>
+      </c>
+      <c r="B5">
+        <v>11525233.26358276</v>
       </c>
     </row>
     <row r="6" spans="1:2">
-      <c r="A6" t="s">
-        <v>6</v>
-      </c>
-      <c r="B6" t="s">
-        <v>35</v>
+      <c r="A6">
+        <v>104.3319329189959</v>
+      </c>
+      <c r="B6">
+        <v>9711533.034030413</v>
       </c>
     </row>
     <row r="7" spans="1:2">
-      <c r="A7" t="s">
-        <v>7</v>
-      </c>
-      <c r="B7" t="s">
-        <v>36</v>
+      <c r="A7">
+        <v>106.2171452380126</v>
+      </c>
+      <c r="B7">
+        <v>7600839.047800092</v>
       </c>
     </row>
     <row r="8" spans="1:2">
-      <c r="A8" t="s">
-        <v>8</v>
-      </c>
-      <c r="B8" t="s">
-        <v>37</v>
+      <c r="A8">
+        <v>108.1023575570293</v>
+      </c>
+      <c r="B8">
+        <v>5886260.575025553</v>
       </c>
     </row>
     <row r="9" spans="1:2">
-      <c r="A9" t="s">
-        <v>9</v>
-      </c>
-      <c r="B9" t="s">
-        <v>38</v>
+      <c r="A9">
+        <v>109.987569876046</v>
+      </c>
+      <c r="B9">
+        <v>4591632.665318484</v>
       </c>
     </row>
     <row r="10" spans="1:2">
-      <c r="A10" t="s">
-        <v>10</v>
-      </c>
-      <c r="B10" t="s">
-        <v>39</v>
+      <c r="A10">
+        <v>111.8727821950627</v>
+      </c>
+      <c r="B10">
+        <v>3723001.576537786</v>
       </c>
     </row>
     <row r="11" spans="1:2">
-      <c r="A11" t="s">
-        <v>11</v>
-      </c>
-      <c r="B11" t="s">
-        <v>40</v>
+      <c r="A11">
+        <v>113.7579945140794</v>
+      </c>
+      <c r="B11">
+        <v>3164768.256306415</v>
       </c>
     </row>
     <row r="12" spans="1:2">
-      <c r="A12" t="s">
-        <v>12</v>
-      </c>
-      <c r="B12" t="s">
-        <v>41</v>
+      <c r="A12">
+        <v>115.711760008333</v>
+      </c>
+      <c r="B12">
+        <v>2652678.472927957</v>
       </c>
     </row>
     <row r="13" spans="1:2">
-      <c r="A13" t="s">
-        <v>13</v>
-      </c>
-      <c r="B13" t="s">
-        <v>42</v>
+      <c r="A13">
+        <v>117.5284191521128</v>
+      </c>
+      <c r="B13">
+        <v>2374229.436102143</v>
       </c>
     </row>
     <row r="14" spans="1:2">
-      <c r="A14" t="s">
-        <v>14</v>
-      </c>
-      <c r="B14" t="s">
-        <v>43</v>
+      <c r="A14">
+        <v>119.4136314711295</v>
+      </c>
+      <c r="B14">
+        <v>2155148.524636506</v>
       </c>
     </row>
     <row r="15" spans="1:2">
-      <c r="A15" t="s">
-        <v>15</v>
-      </c>
-      <c r="B15" t="s">
-        <v>44</v>
+      <c r="A15">
+        <v>121.2988437901462</v>
+      </c>
+      <c r="B15">
+        <v>1943830.534993693</v>
       </c>
     </row>
     <row r="16" spans="1:2">
-      <c r="A16" t="s">
-        <v>16</v>
-      </c>
-      <c r="B16" t="s">
-        <v>45</v>
+      <c r="A16">
+        <v>123.1840561091629</v>
+      </c>
+      <c r="B16">
+        <v>1743662.62348273</v>
       </c>
     </row>
     <row r="17" spans="1:2">
-      <c r="A17" t="s">
-        <v>17</v>
-      </c>
-      <c r="B17" t="s">
-        <v>46</v>
+      <c r="A17">
+        <v>125.0692684281796</v>
+      </c>
+      <c r="B17">
+        <v>1607137.929580212</v>
       </c>
     </row>
     <row r="18" spans="1:2">
-      <c r="A18" t="s">
-        <v>18</v>
-      </c>
-      <c r="B18" t="s">
-        <v>47</v>
+      <c r="A18">
+        <v>126.8687892781501</v>
+      </c>
+      <c r="B18">
+        <v>1450003.178953382</v>
       </c>
     </row>
     <row r="19" spans="1:2">
-      <c r="A19" t="s">
-        <v>19</v>
-      </c>
-      <c r="B19" t="s">
-        <v>48</v>
+      <c r="A19">
+        <v>128.839693066213</v>
+      </c>
+      <c r="B19">
+        <v>1346457.494109161</v>
       </c>
     </row>
     <row r="20" spans="1:2">
-      <c r="A20" t="s">
-        <v>20</v>
-      </c>
-      <c r="B20" t="s">
-        <v>49</v>
+      <c r="A20">
+        <v>130.6906287976112</v>
+      </c>
+      <c r="B20">
+        <v>1267423.649946921</v>
       </c>
     </row>
     <row r="21" spans="1:2">
-      <c r="A21" t="s">
-        <v>21</v>
-      </c>
-      <c r="B21" t="s">
-        <v>50</v>
+      <c r="A21">
+        <v>132.6101177042464</v>
+      </c>
+      <c r="B21">
+        <v>1151716.141189946</v>
       </c>
     </row>
     <row r="22" spans="1:2">
-      <c r="A22" t="s">
-        <v>22</v>
-      </c>
-      <c r="B22" t="s">
-        <v>51</v>
+      <c r="A22">
+        <v>134.4953300232631</v>
+      </c>
+      <c r="B22">
+        <v>1044250.608599537</v>
       </c>
     </row>
     <row r="23" spans="1:2">
-      <c r="A23" t="s">
-        <v>23</v>
-      </c>
-      <c r="B23" t="s">
-        <v>52</v>
+      <c r="A23">
+        <v>136.3805423422798</v>
+      </c>
+      <c r="B23">
+        <v>976639.8926922174</v>
       </c>
     </row>
     <row r="24" spans="1:2">
-      <c r="A24" t="s">
-        <v>24</v>
-      </c>
-      <c r="B24" t="s">
-        <v>53</v>
+      <c r="A24">
+        <v>138.4371375993889</v>
+      </c>
+      <c r="B24">
+        <v>915008.3500060556</v>
       </c>
     </row>
     <row r="25" spans="1:2">
-      <c r="A25" t="s">
-        <v>25</v>
-      </c>
-      <c r="B25" t="s">
-        <v>54</v>
+      <c r="A25">
+        <v>140.3223499184056</v>
+      </c>
+      <c r="B25">
+        <v>842020.021883468</v>
       </c>
     </row>
     <row r="26" spans="1:2">
-      <c r="A26" t="s">
-        <v>26</v>
-      </c>
-      <c r="B26" t="s">
-        <v>55</v>
+      <c r="A26">
+        <v>142.2075622374223</v>
+      </c>
+      <c r="B26">
+        <v>817515.3318900247</v>
       </c>
     </row>
     <row r="27" spans="1:2">
-      <c r="A27" t="s">
-        <v>27</v>
-      </c>
-      <c r="B27" t="s">
-        <v>56</v>
+      <c r="A27">
+        <v>144.092774556439</v>
+      </c>
+      <c r="B27">
+        <v>776180.5470030596</v>
       </c>
     </row>
     <row r="28" spans="1:2">
-      <c r="A28" t="s">
-        <v>28</v>
-      </c>
-      <c r="B28" t="s">
-        <v>57</v>
+      <c r="A28">
+        <v>145.9779868754557</v>
+      </c>
+      <c r="B28">
+        <v>743519.6460268954</v>
       </c>
     </row>
     <row r="29" spans="1:2">
-      <c r="A29" t="s">
-        <v>29</v>
-      </c>
-      <c r="B29" t="s">
-        <v>58</v>
+      <c r="A29">
+        <v>147.8631991944724</v>
+      </c>
+      <c r="B29">
+        <v>694429.0608257252</v>
       </c>
     </row>
     <row r="30" spans="1:2">
-      <c r="A30" t="s">
-        <v>30</v>
-      </c>
-      <c r="B30" t="s">
-        <v>59</v>
+      <c r="A30">
+        <v>149.277108433735</v>
+      </c>
+      <c r="B30">
+        <v>652195.1654051729</v>
       </c>
     </row>
   </sheetData>
